--- a/FlipApp/testdata/userdata.xlsx
+++ b/FlipApp/testdata/userdata.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tarungoswami/git/flip-app/FlipApp/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF4F111-A1F4-B14A-9EBD-DA735EBE5453}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F236FCCC-40A5-F944-9B3F-C0C5DC61EE37}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{A24911FF-94BC-424E-BE04-FC6C9EE83EA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088193BA-82D5-B44D-8AFB-16FD4061F461}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FlipApp/testdata/userdata.xlsx
+++ b/FlipApp/testdata/userdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tarungoswami/git/flip-app/FlipApp/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhupesh\git\flip-app\FlipApp\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D1C967-8870-384F-9A3D-F4F55DBC563E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CFC10F-C01B-42D4-85B1-85577972E541}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="47">
   <si>
     <t>Role</t>
   </si>
@@ -148,6 +148,24 @@
   </si>
   <si>
     <t>automation.parent</t>
+  </si>
+  <si>
+    <t>vinay2.student</t>
+  </si>
+  <si>
+    <t>vinay2.teacher</t>
+  </si>
+  <si>
+    <t>vinay2.admin</t>
+  </si>
+  <si>
+    <t>vinay2.principal</t>
+  </si>
+  <si>
+    <t>vinay2.parent</t>
+  </si>
+  <si>
+    <t>vinay2.guest</t>
   </si>
 </sst>
 </file>
@@ -500,20 +518,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="10.6640625"/>
+    <col min="1" max="6" width="10.69921875"/>
     <col min="7" max="7" width="20"/>
-    <col min="8" max="1025" width="10.6640625"/>
+    <col min="8" max="1025" width="10.69921875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -565,7 +583,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -591,7 +609,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -617,7 +635,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -643,7 +661,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -669,7 +687,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -695,7 +713,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -721,7 +739,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -747,7 +765,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -773,7 +791,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -799,7 +817,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -825,7 +843,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -851,7 +869,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -877,7 +895,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -903,7 +921,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -929,7 +947,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -955,7 +973,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -981,7 +999,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1007,7 +1025,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1033,7 +1051,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1059,7 +1077,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1085,7 +1103,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1111,7 +1129,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1125,7 +1143,7 @@
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
@@ -1137,7 +1155,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1163,7 +1181,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1186,6 +1204,162 @@
         <v>39</v>
       </c>
       <c r="H26" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="1">
         <v>123456</v>
       </c>
     </row>

--- a/FlipApp/testdata/userdata.xlsx
+++ b/FlipApp/testdata/userdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhupesh\git\flip-app\FlipApp\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tarungoswami/git/flip-app/FlipApp/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CFC10F-C01B-42D4-85B1-85577972E541}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E38CD5-509C-2646-8F7E-1ECBD641B58A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="49">
   <si>
     <t>Role</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>vinay2.guest</t>
+  </si>
+  <si>
+    <t>Guru</t>
+  </si>
+  <si>
+    <t>parul.s</t>
   </si>
 </sst>
 </file>
@@ -518,20 +524,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="10.69921875"/>
+    <col min="1" max="6" width="10.6640625"/>
     <col min="7" max="7" width="20"/>
-    <col min="8" max="1025" width="10.69921875"/>
+    <col min="8" max="1025" width="10.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -583,7 +589,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -609,7 +615,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -635,7 +641,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -661,7 +667,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -687,7 +693,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -713,7 +719,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -739,7 +745,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -765,7 +771,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -791,7 +797,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -817,7 +823,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -843,7 +849,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -869,7 +875,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -895,7 +901,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -921,7 +927,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -947,7 +953,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -973,7 +979,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -999,7 +1005,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1025,7 +1031,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1051,7 +1057,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1077,7 +1083,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1103,7 +1109,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1129,7 +1135,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1155,7 +1161,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1181,7 +1187,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1207,7 +1213,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1233,7 +1239,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1259,7 +1265,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1285,7 +1291,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1311,7 +1317,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1337,7 +1343,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -1360,6 +1366,32 @@
         <v>46</v>
       </c>
       <c r="H32" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="1">
         <v>123456</v>
       </c>
     </row>

--- a/FlipApp/testdata/userdata.xlsx
+++ b/FlipApp/testdata/userdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tarungoswami/git/flip-app/FlipApp/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhupesh\git\flip-app\FlipApp\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E38CD5-509C-2646-8F7E-1ECBD641B58A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7C3A8F-8B8A-47B1-BA08-4549E0E5BD8F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -526,18 +526,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="10.6640625"/>
+    <col min="1" max="6" width="10.69921875"/>
     <col min="7" max="7" width="20"/>
-    <col min="8" max="1025" width="10.6640625"/>
+    <col min="8" max="1025" width="10.69921875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -589,7 +589,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -615,7 +615,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -641,7 +641,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -667,7 +667,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -693,7 +693,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -719,7 +719,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -745,7 +745,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -771,7 +771,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -797,7 +797,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -823,7 +823,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -849,7 +849,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -875,7 +875,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -901,7 +901,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -927,7 +927,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -953,7 +953,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -979,7 +979,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
@@ -1161,7 +1161,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>21</v>
       </c>

--- a/FlipApp/testdata/userdata.xlsx
+++ b/FlipApp/testdata/userdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhupesh\git\flip-app\FlipApp\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7C3A8F-8B8A-47B1-BA08-4549E0E5BD8F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53047A5-718E-41CF-9B63-4392626B71E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1149,7 +1149,7 @@
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>

--- a/FlipApp/testdata/userdata.xlsx
+++ b/FlipApp/testdata/userdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhupesh\git\flip-app\FlipApp\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53047A5-718E-41CF-9B63-4392626B71E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173A3F60-4B8A-45D4-8316-797587A64DA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/FlipApp/testdata/userdata.xlsx
+++ b/FlipApp/testdata/userdata.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhupesh\git\flip-app\FlipApp\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173A3F60-4B8A-45D4-8316-797587A64DA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16185" windowHeight="2670" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="50">
   <si>
     <t>Role</t>
   </si>
@@ -172,13 +167,16 @@
   </si>
   <si>
     <t>parul.s</t>
+  </si>
+  <si>
+    <t>moodle_teacher</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -270,7 +268,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -322,7 +320,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -516,28 +514,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="6" width="10.69921875"/>
+    <col min="1" max="6" width="10.75"/>
     <col min="7" max="7" width="20"/>
-    <col min="8" max="1025" width="10.69921875"/>
+    <col min="8" max="1025" width="10.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -589,7 +587,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -615,7 +613,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -641,7 +639,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -667,7 +665,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -693,7 +691,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -719,7 +717,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -745,7 +743,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -771,7 +769,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -797,7 +795,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -823,7 +821,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -849,7 +847,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -875,7 +873,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -901,7 +899,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -927,7 +925,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -953,7 +951,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -979,7 +977,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1005,7 +1003,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1031,7 +1029,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1057,7 +1055,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1083,7 +1081,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1109,7 +1107,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1135,7 +1133,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1161,7 +1159,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1187,7 +1185,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1213,7 +1211,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1239,7 +1237,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1265,7 +1263,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1291,7 +1289,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1317,7 +1315,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1343,7 +1341,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -1369,7 +1367,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -1392,6 +1390,32 @@
         <v>48</v>
       </c>
       <c r="H33" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="1">
         <v>123456</v>
       </c>
     </row>
